--- a/medicine/Enfance/Gérard_DuBois/Gérard_DuBois.xlsx
+++ b/medicine/Enfance/Gérard_DuBois/Gérard_DuBois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_DuBois</t>
+          <t>Gérard_DuBois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gérard DuBois est un peintre et illustrateur français né en 1968[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gérard DuBois est un peintre et illustrateur français né en 1968.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_DuBois</t>
+          <t>Gérard_DuBois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né en 1968, Gérard DuBois a étudié les arts graphiques à l'École Estienne et au L.E.I. Rue Madame à Paris.
-Son travail d'illustrateur a été publié dans de nombreuses revues américaines, comme Time[5], Johns Hopkins magazine[6],[7], The Wall Street Journal, Rolling Stone et The New York Times[8].
-En 2021 est publié l'album À qui appartiennent les nuages ? qu'il a illustré, sur un texte de Mario Brassard. L'ouvrage est récompensé du Prix du Gouverneur général : littérature jeunesse de langue française - illustration[9] en novembre 2021.
+Son travail d'illustrateur a été publié dans de nombreuses revues américaines, comme Time, Johns Hopkins magazine The Wall Street Journal, Rolling Stone et The New York Times.
+En 2021 est publié l'album À qui appartiennent les nuages ? qu'il a illustré, sur un texte de Mario Brassard. L'ouvrage est récompensé du Prix du Gouverneur général : littérature jeunesse de langue française - illustration en novembre 2021.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9rard_DuBois</t>
+          <t>Gérard_DuBois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Auteur et illustrateur
-Henri au jardin d'enfants, Seuil Jeunesse, 2008
-Enfantillages, éditions du Rouergue, 2016
-Illustrateur
-L'enfant sans nom, texte de Philippe Raulet, Syros, 1994
+          <t>Auteur et illustrateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Henri au jardin d'enfants, Seuil Jeunesse, 2008
+Enfantillages, éditions du Rouergue, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gérard_DuBois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_DuBois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrateur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'enfant sans nom, texte de Philippe Raulet, Syros, 1994
 Ma victoire sur Cauchemar, texte de Jean-Loup Craipeau, Nathan, 1997
 Le livre de la nuit, texte de Marie-Francine Hébert, Courte échelle, 1998
 Les Misérables, texte de Victor Hugo, Nathan, 2002
@@ -575,36 +628,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>G%C3%A9rard_DuBois</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gérard_DuBois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/G%C3%A9rard_DuBois</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1999 : Prix illustration jeunesse[10] pour ses illustrations de  Le livre dans la nuit
-2017 :  Prix Harry Black de l'album jeunesse[11] pour Au-delà de la forêt, avec Nadine Robert
-2021 :  Prix du Gouverneur général : littérature jeunesse de langue française - illustration[9] pour À qui appartiennent les nuages ? qu'il a illustré, sur un texte de Mario Brassard
-2022 :  Prix BolognaRagazzi, catégorie Fiction[12], Foire du livre de jeunesse de Bologne  pour À qui appartiennent les nuages ? qu'il a illustré, sur un texte de Mario Brassard</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1999 : Prix illustration jeunesse pour ses illustrations de  Le livre dans la nuit
+2017 :  Prix Harry Black de l'album jeunesse pour Au-delà de la forêt, avec Nadine Robert
+2021 :  Prix du Gouverneur général : littérature jeunesse de langue française - illustration pour À qui appartiennent les nuages ? qu'il a illustré, sur un texte de Mario Brassard
+2022 :  Prix BolognaRagazzi, catégorie Fiction, Foire du livre de jeunesse de Bologne  pour À qui appartiennent les nuages ? qu'il a illustré, sur un texte de Mario Brassard</t>
         </is>
       </c>
     </row>
